--- a/COVID-19.xlsx
+++ b/COVID-19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB5CBC3-1346-439D-AA9F-3418117C2AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8ED38A-44C4-4491-974F-208CCCEA62F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-70" windowWidth="19420" windowHeight="11020" xr2:uid="{3FBC27C6-5220-4A78-9A65-55ACE8131E0C}"/>
   </bookViews>
@@ -176,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +243,87 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1429,10 +1510,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AI$107:$AI$323</c:f>
+              <c:f>Sheet1!$AI$107:$AI$363</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="217"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>12.07</c:v>
                 </c:pt>
@@ -2083,6 +2164,126 @@
                 </c:pt>
                 <c:pt idx="216">
                   <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,8 +2585,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.4804603556728127E-2"/>
-          <c:y val="6.7032359664719335E-2"/>
+          <c:x val="2.6680095220655557E-2"/>
+          <c:y val="7.6768673010343486E-2"/>
           <c:w val="0.96479678189304208"/>
           <c:h val="0.85222372364744725"/>
         </c:manualLayout>
@@ -2473,10 +2674,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AI$216:$AI$323</c:f>
+              <c:f>Sheet1!$AI$216:$AI$363</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>1.94</c:v>
                 </c:pt>
@@ -2800,6 +3001,126 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3244,10 +3565,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$266</c:f>
+              <c:f>Sheet1!$B$2:$B$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="265"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4042,16 +4363,136 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$266</c:f>
+              <c:f>Sheet1!$C$2:$C$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="265"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4846,6 +5287,126 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>772252</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>775502</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>778571</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>781941</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>785139</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>787702</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>790004</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>792299</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>796472</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>800872</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>805804</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>810449</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>814565</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>817878</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>821889</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>828598</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>836764</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>845083</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>852965</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>860964</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>866127</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>873679</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>883687</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>892813</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>901538</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>912477</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>921922</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>930711</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>940212</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>954258</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>968563</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>983359</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>994911</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1004413</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1011871</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1021451</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1039161</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1057161</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1073887</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1088889</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1100748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4992,7 +5553,7 @@
         <c:axId val="214733727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800000"/>
+          <c:max val="1200000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5349,10 +5910,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$266</c:f>
+              <c:f>Sheet1!$B$2:$B$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="265"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6147,6 +6708,126 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6216,10 +6897,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$266</c:f>
+              <c:f>Sheet1!$C$2:$C$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="265"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7014,6 +7695,126 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>772252</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>775502</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>778571</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>781941</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>785139</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>787702</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>790004</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>792299</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>796472</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>800872</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>805804</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>810449</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>814565</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>817878</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>821889</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>828598</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>836764</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>845083</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>852965</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>860964</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>866127</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>873679</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>883687</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>892813</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>901538</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>912477</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>921922</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>930711</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>940212</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>954258</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>968563</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>983359</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>994911</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1004413</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1011871</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1021451</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1039161</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1057161</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1073887</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1088889</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1100748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7128,7 +7929,7 @@
         <c:axId val="1825024016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800000"/>
+          <c:max val="1200000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7340,8 +8141,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19587328305278276"/>
-          <c:y val="1.4410045956413129E-2"/>
+          <c:x val="0.19686685629576131"/>
+          <c:y val="8.2515205517843442E-4"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7386,10 +8187,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8294972885927572E-2"/>
-          <c:y val="0.11524783986773487"/>
+          <c:x val="7.8294952856237707E-2"/>
+          <c:y val="8.5360985304720069E-2"/>
           <c:w val="0.90723134140399309"/>
-          <c:h val="0.76075941599424091"/>
+          <c:h val="0.7960802603176097"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7506,10 +8307,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$266</c:f>
+              <c:f>Sheet1!$D$2:$D$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="265"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8304,6 +9105,126 @@
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>2493</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3069</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3370</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3198</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2302</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2295</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4173</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>4932</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4645</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4116</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3313</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>4011</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>6709</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>8166</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8319</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>7882</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>7999</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5163</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>7552</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>10008</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>9126</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>8725</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>10939</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>9445</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>8789</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>9501</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>14046</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>14305</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>14796</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>11552</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>9502</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>7458</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>9580</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>17710</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>16726</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>15002</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>11859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8444,7 +9365,7 @@
         <c:axId val="1638117856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14000"/>
+          <c:max val="18000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8796,10 +9717,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$B$266</c:f>
+              <c:f>Sheet1!$B$25:$B$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="242"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>24</c:v>
                 </c:pt>
@@ -9525,16 +10446,136 @@
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$C$266</c:f>
+              <c:f>Sheet1!$C$25:$C$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="242"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>1187</c:v>
                 </c:pt>
@@ -10260,6 +11301,126 @@
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>772252</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>775502</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>778571</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>781941</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>785139</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>787702</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>790004</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>792299</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>796472</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>800872</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>805804</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>810449</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>814565</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>817878</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>821889</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>828598</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>836764</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>845083</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>852965</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>860964</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>866127</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>873679</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>883687</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>892813</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>901538</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>912477</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>921922</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>930711</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>940212</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>954258</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>968563</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>983359</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>994911</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1004413</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1011871</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1021451</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1039161</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1057161</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1073887</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1088889</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1100748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10406,7 +11567,7 @@
         <c:axId val="1887701808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800000"/>
+          <c:max val="1200000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10767,10 +11928,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$81:$AD$323</c:f>
+              <c:f>Sheet1!$AD$81:$AD$363</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="243"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
@@ -11499,16 +12660,136 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AE$81:$AE$323</c:f>
+              <c:f>Sheet1!$AE$81:$AE$363</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="243"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -12237,6 +13518,126 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>21083</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>21201</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>21289</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>21378</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>21439</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>21477</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>21535</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>21644</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>21709</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>21803</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>21963</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>22067</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>22206</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>22249</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>22432</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>22574</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>22747</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>22952</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>23106</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>23276</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>23451</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>23661</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>23827</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>24011</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>24285</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24539</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>24691</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>24907</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>25246</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>25657</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>25983</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>26276</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>26521</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>26735</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>27071</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>27568</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>28033</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>28469</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>28887</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>29175</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>29577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12385,7 +13786,7 @@
         <c:axId val="1485321375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="21000"/>
+          <c:max val="30000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -13677,10 +15078,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AF$82:$AF$323</c:f>
+              <c:f>Sheet1!$AF$82:$AF$363</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="242"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14406,6 +15807,126 @@
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14827,10 +16348,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$24:$E$265</c:f>
+              <c:f>Sheet1!$E$24:$E$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="242"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>1.4529914529914478</c:v>
                 </c:pt>
@@ -15556,6 +17077,126 @@
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>0.32386760011899884</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.4208470810046494</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.39574366023555907</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.43284427496015354</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.4089822633676965</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.32643901270985598</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.29224249779740141</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.29050485820325544</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.52669509869380793</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.5524362438353192</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.61582874666612497</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.57644290671181597</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.50786662701787222</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.40672015124636474</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.49041544093373357</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.81629027764089646</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.98552011952719454</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.99418713042147555</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.93268945180533525</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.93778759972567016</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.59967664153204314</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.87192755796783317</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.1455008075048179</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.0327185983272313</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.97724831515670907</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.2133709283469019</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.0350945832059422</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.95333444694887248</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.0208324603448338</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.4939183928730948</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.4990704819870526</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.5276239129514479</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.174748998076991</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.95506030187624269</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.74252324492016797</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.94676100016701792</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.7338080828155134</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.732166622881337</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.5821620358677624</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.3969812466302356</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.0890917256028754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22363,10 +24004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E17D4B-CC03-48E7-A341-BB05061BB8B6}">
-  <dimension ref="A1:AI328"/>
+  <dimension ref="A1:AI374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V365" sqref="V365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22394,10 +24035,10 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="96"/>
+      <c r="F1" s="123"/>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
@@ -24808,10 +26449,10 @@
         <f t="shared" si="2"/>
         <v>5.1627736844855443</v>
       </c>
-      <c r="AG79" s="97" t="s">
+      <c r="AG79" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AH79" s="97"/>
+      <c r="AH79" s="124"/>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
@@ -29762,7 +31403,7 @@
         <v>672572</v>
       </c>
       <c r="D210" s="18">
-        <f t="shared" ref="D210:D266" si="15">C210-C209</f>
+        <f t="shared" ref="D210:D274" si="15">C210-C209</f>
         <v>903</v>
       </c>
       <c r="E210" s="64">
@@ -31379,7 +33020,7 @@
         <v>2338</v>
       </c>
       <c r="E254" s="87">
-        <f t="shared" ref="E254:E265" si="18">(C255/C254-1)*100</f>
+        <f t="shared" ref="E254:E306" si="18">(C255/C254-1)*100</f>
         <v>0.29715387548809868</v>
       </c>
       <c r="AC254">
@@ -31617,6 +33258,9 @@
       </c>
     </row>
     <row r="261" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A261" s="7">
+        <v>264</v>
+      </c>
       <c r="B261" s="18">
         <v>260</v>
       </c>
@@ -31650,6 +33294,9 @@
       </c>
     </row>
     <row r="262" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A262" s="7">
+        <v>265</v>
+      </c>
       <c r="B262" s="18">
         <v>261</v>
       </c>
@@ -31683,6 +33330,9 @@
       </c>
     </row>
     <row r="263" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A263" s="7">
+        <v>266</v>
+      </c>
       <c r="B263" s="18">
         <v>262</v>
       </c>
@@ -31716,6 +33366,9 @@
       </c>
     </row>
     <row r="264" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A264" s="7">
+        <v>267</v>
+      </c>
       <c r="B264" s="18">
         <v>263</v>
       </c>
@@ -31749,6 +33402,9 @@
       </c>
     </row>
     <row r="265" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A265" s="7">
+        <v>268</v>
+      </c>
       <c r="B265" s="18">
         <v>264</v>
       </c>
@@ -31782,6 +33438,9 @@
       </c>
     </row>
     <row r="266" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A266" s="7">
+        <v>269</v>
+      </c>
       <c r="B266" s="18">
         <v>265</v>
       </c>
@@ -31792,6 +33451,10 @@
         <f t="shared" si="15"/>
         <v>2493</v>
       </c>
+      <c r="E266" s="96">
+        <f t="shared" si="18"/>
+        <v>0.4208470810046494</v>
+      </c>
       <c r="AC266">
         <v>186</v>
       </c>
@@ -31811,8 +33474,22 @@
       </c>
     </row>
     <row r="267" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A267" s="7">
+        <v>270</v>
+      </c>
       <c r="B267" s="18">
         <v>266</v>
+      </c>
+      <c r="C267" s="18">
+        <v>775502</v>
+      </c>
+      <c r="D267" s="18">
+        <f t="shared" si="15"/>
+        <v>3250</v>
+      </c>
+      <c r="E267" s="97">
+        <f t="shared" si="18"/>
+        <v>0.39574366023555907</v>
       </c>
       <c r="AC267">
         <v>187</v>
@@ -31833,8 +33510,22 @@
       </c>
     </row>
     <row r="268" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A268" s="7">
+        <v>271</v>
+      </c>
       <c r="B268" s="18">
         <v>267</v>
+      </c>
+      <c r="C268" s="18">
+        <v>778571</v>
+      </c>
+      <c r="D268" s="18">
+        <f t="shared" si="15"/>
+        <v>3069</v>
+      </c>
+      <c r="E268" s="98">
+        <f t="shared" si="18"/>
+        <v>0.43284427496015354</v>
       </c>
       <c r="AC268">
         <v>188</v>
@@ -31855,8 +33546,22 @@
       </c>
     </row>
     <row r="269" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A269" s="7">
+        <v>272</v>
+      </c>
       <c r="B269" s="18">
         <v>268</v>
+      </c>
+      <c r="C269" s="18">
+        <v>781941</v>
+      </c>
+      <c r="D269" s="18">
+        <f t="shared" si="15"/>
+        <v>3370</v>
+      </c>
+      <c r="E269" s="99">
+        <f t="shared" si="18"/>
+        <v>0.4089822633676965</v>
       </c>
       <c r="AC269">
         <v>189</v>
@@ -31877,6 +33582,23 @@
       </c>
     </row>
     <row r="270" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A270" s="7">
+        <v>273</v>
+      </c>
+      <c r="B270" s="18">
+        <v>269</v>
+      </c>
+      <c r="C270" s="18">
+        <v>785139</v>
+      </c>
+      <c r="D270" s="18">
+        <f t="shared" si="15"/>
+        <v>3198</v>
+      </c>
+      <c r="E270" s="99">
+        <f t="shared" si="18"/>
+        <v>0.32643901270985598</v>
+      </c>
       <c r="AC270">
         <v>190</v>
       </c>
@@ -31896,6 +33618,23 @@
       </c>
     </row>
     <row r="271" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A271" s="7">
+        <v>274</v>
+      </c>
+      <c r="B271" s="18">
+        <v>270</v>
+      </c>
+      <c r="C271" s="18">
+        <v>787702</v>
+      </c>
+      <c r="D271" s="18">
+        <f t="shared" si="15"/>
+        <v>2563</v>
+      </c>
+      <c r="E271" s="100">
+        <f t="shared" si="18"/>
+        <v>0.29224249779740141</v>
+      </c>
       <c r="AC271">
         <v>191</v>
       </c>
@@ -31915,6 +33654,23 @@
       </c>
     </row>
     <row r="272" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A272" s="7">
+        <v>275</v>
+      </c>
+      <c r="B272" s="18">
+        <v>271</v>
+      </c>
+      <c r="C272" s="18">
+        <v>790004</v>
+      </c>
+      <c r="D272" s="18">
+        <f t="shared" si="15"/>
+        <v>2302</v>
+      </c>
+      <c r="E272" s="100">
+        <f t="shared" si="18"/>
+        <v>0.29050485820325544</v>
+      </c>
       <c r="AC272">
         <v>192</v>
       </c>
@@ -31933,7 +33689,24 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="273" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A273" s="7">
+        <v>276</v>
+      </c>
+      <c r="B273" s="18">
+        <v>272</v>
+      </c>
+      <c r="C273" s="18">
+        <v>792299</v>
+      </c>
+      <c r="D273" s="18">
+        <f t="shared" si="15"/>
+        <v>2295</v>
+      </c>
+      <c r="E273" s="101">
+        <f t="shared" si="18"/>
+        <v>0.52669509869380793</v>
+      </c>
       <c r="AC273">
         <v>193</v>
       </c>
@@ -31952,7 +33725,24 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="274" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A274" s="7">
+        <v>277</v>
+      </c>
+      <c r="B274" s="18">
+        <v>273</v>
+      </c>
+      <c r="C274" s="18">
+        <v>796472</v>
+      </c>
+      <c r="D274" s="18">
+        <f t="shared" si="15"/>
+        <v>4173</v>
+      </c>
+      <c r="E274" s="101">
+        <f t="shared" si="18"/>
+        <v>0.5524362438353192</v>
+      </c>
       <c r="AC274">
         <v>194</v>
       </c>
@@ -31971,7 +33761,24 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="275" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A275" s="7">
+        <v>278</v>
+      </c>
+      <c r="B275" s="18">
+        <v>274</v>
+      </c>
+      <c r="C275" s="18">
+        <v>800872</v>
+      </c>
+      <c r="D275" s="18">
+        <f t="shared" ref="D275:D306" si="19">C275-C274</f>
+        <v>4400</v>
+      </c>
+      <c r="E275" s="102">
+        <f t="shared" si="18"/>
+        <v>0.61582874666612497</v>
+      </c>
       <c r="AC275">
         <v>195</v>
       </c>
@@ -31990,7 +33797,24 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="276" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A276" s="7">
+        <v>279</v>
+      </c>
+      <c r="B276" s="18">
+        <v>275</v>
+      </c>
+      <c r="C276" s="18">
+        <v>805804</v>
+      </c>
+      <c r="D276" s="18">
+        <f t="shared" si="19"/>
+        <v>4932</v>
+      </c>
+      <c r="E276" s="102">
+        <f t="shared" si="18"/>
+        <v>0.57644290671181597</v>
+      </c>
       <c r="AC276">
         <v>196</v>
       </c>
@@ -32009,7 +33833,24 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="277" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A277" s="7">
+        <v>280</v>
+      </c>
+      <c r="B277" s="18">
+        <v>276</v>
+      </c>
+      <c r="C277" s="18">
+        <v>810449</v>
+      </c>
+      <c r="D277" s="18">
+        <f t="shared" si="19"/>
+        <v>4645</v>
+      </c>
+      <c r="E277" s="103">
+        <f t="shared" si="18"/>
+        <v>0.50786662701787222</v>
+      </c>
       <c r="AC277">
         <v>197</v>
       </c>
@@ -32028,7 +33869,24 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="278" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A278" s="7">
+        <v>281</v>
+      </c>
+      <c r="B278" s="18">
+        <v>277</v>
+      </c>
+      <c r="C278" s="18">
+        <v>814565</v>
+      </c>
+      <c r="D278" s="18">
+        <f t="shared" si="19"/>
+        <v>4116</v>
+      </c>
+      <c r="E278" s="103">
+        <f t="shared" si="18"/>
+        <v>0.40672015124636474</v>
+      </c>
       <c r="AC278">
         <v>198</v>
       </c>
@@ -32047,7 +33905,24 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="279" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A279" s="7">
+        <v>282</v>
+      </c>
+      <c r="B279" s="18">
+        <v>278</v>
+      </c>
+      <c r="C279" s="18">
+        <v>817878</v>
+      </c>
+      <c r="D279" s="18">
+        <f t="shared" si="19"/>
+        <v>3313</v>
+      </c>
+      <c r="E279" s="104">
+        <f t="shared" si="18"/>
+        <v>0.49041544093373357</v>
+      </c>
       <c r="AC279">
         <v>199</v>
       </c>
@@ -32058,7 +33933,7 @@
         <v>17780</v>
       </c>
       <c r="AF279" s="65">
-        <f t="shared" ref="AF279:AF323" si="19">AE279-AE278</f>
+        <f t="shared" ref="AF279:AF345" si="20">AE279-AE278</f>
         <v>107</v>
       </c>
       <c r="AI279">
@@ -32066,7 +33941,24 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="280" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A280" s="7">
+        <v>283</v>
+      </c>
+      <c r="B280" s="18">
+        <v>279</v>
+      </c>
+      <c r="C280" s="18">
+        <v>821889</v>
+      </c>
+      <c r="D280" s="18">
+        <f t="shared" si="19"/>
+        <v>4011</v>
+      </c>
+      <c r="E280" s="105">
+        <f t="shared" si="18"/>
+        <v>0.81629027764089646</v>
+      </c>
       <c r="AC280">
         <v>200</v>
       </c>
@@ -32077,7 +33969,7 @@
         <v>17863</v>
       </c>
       <c r="AF280" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>83</v>
       </c>
       <c r="AI280">
@@ -32085,7 +33977,24 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="281" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A281" s="7">
+        <v>284</v>
+      </c>
+      <c r="B281" s="18">
+        <v>280</v>
+      </c>
+      <c r="C281" s="18">
+        <v>828598</v>
+      </c>
+      <c r="D281" s="18">
+        <f t="shared" si="19"/>
+        <v>6709</v>
+      </c>
+      <c r="E281" s="106">
+        <f t="shared" si="18"/>
+        <v>0.98552011952719454</v>
+      </c>
       <c r="AC281">
         <v>201</v>
       </c>
@@ -32096,7 +34005,7 @@
         <v>18028</v>
       </c>
       <c r="AF281" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>165</v>
       </c>
       <c r="AI281">
@@ -32104,7 +34013,24 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="282" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A282" s="7">
+        <v>285</v>
+      </c>
+      <c r="B282" s="18">
+        <v>281</v>
+      </c>
+      <c r="C282" s="18">
+        <v>836764</v>
+      </c>
+      <c r="D282" s="18">
+        <f t="shared" si="19"/>
+        <v>8166</v>
+      </c>
+      <c r="E282" s="107">
+        <f t="shared" si="18"/>
+        <v>0.99418713042147555</v>
+      </c>
       <c r="AC282">
         <v>202</v>
       </c>
@@ -32115,7 +34041,7 @@
         <v>18151</v>
       </c>
       <c r="AF282" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>123</v>
       </c>
       <c r="AI282">
@@ -32123,7 +34049,24 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="283" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A283" s="7">
+        <v>286</v>
+      </c>
+      <c r="B283" s="18">
+        <v>282</v>
+      </c>
+      <c r="C283" s="18">
+        <v>845083</v>
+      </c>
+      <c r="D283" s="18">
+        <f t="shared" si="19"/>
+        <v>8319</v>
+      </c>
+      <c r="E283" s="107">
+        <f t="shared" si="18"/>
+        <v>0.93268945180533525</v>
+      </c>
       <c r="AC283">
         <v>203</v>
       </c>
@@ -32134,7 +34077,7 @@
         <v>18309</v>
       </c>
       <c r="AF283" s="66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>158</v>
       </c>
       <c r="AI283">
@@ -32142,7 +34085,24 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="284" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A284" s="7">
+        <v>287</v>
+      </c>
+      <c r="B284" s="18">
+        <v>283</v>
+      </c>
+      <c r="C284" s="18">
+        <v>852965</v>
+      </c>
+      <c r="D284" s="18">
+        <f t="shared" si="19"/>
+        <v>7882</v>
+      </c>
+      <c r="E284" s="107">
+        <f t="shared" si="18"/>
+        <v>0.93778759972567016</v>
+      </c>
       <c r="AC284">
         <v>204</v>
       </c>
@@ -32153,7 +34113,7 @@
         <v>18370</v>
       </c>
       <c r="AF284" s="66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>61</v>
       </c>
       <c r="AI284">
@@ -32161,7 +34121,24 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="285" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A285" s="7">
+        <v>288</v>
+      </c>
+      <c r="B285" s="18">
+        <v>284</v>
+      </c>
+      <c r="C285" s="18">
+        <v>860964</v>
+      </c>
+      <c r="D285" s="18">
+        <f t="shared" si="19"/>
+        <v>7999</v>
+      </c>
+      <c r="E285" s="108">
+        <f t="shared" si="18"/>
+        <v>0.59967664153204314</v>
+      </c>
       <c r="AC285">
         <v>205</v>
       </c>
@@ -32172,7 +34149,7 @@
         <v>18408</v>
       </c>
       <c r="AF285" s="67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>38</v>
       </c>
       <c r="AI285">
@@ -32180,7 +34157,24 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="286" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A286" s="7">
+        <v>289</v>
+      </c>
+      <c r="B286" s="18">
+        <v>285</v>
+      </c>
+      <c r="C286" s="18">
+        <v>866127</v>
+      </c>
+      <c r="D286" s="18">
+        <f t="shared" si="19"/>
+        <v>5163</v>
+      </c>
+      <c r="E286" s="109">
+        <f t="shared" si="18"/>
+        <v>0.87192755796783317</v>
+      </c>
       <c r="AC286">
         <v>206</v>
       </c>
@@ -32191,7 +34185,7 @@
         <v>18471</v>
       </c>
       <c r="AF286" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>63</v>
       </c>
       <c r="AI286">
@@ -32199,7 +34193,24 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="287" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A287" s="7">
+        <v>290</v>
+      </c>
+      <c r="B287" s="18">
+        <v>286</v>
+      </c>
+      <c r="C287" s="18">
+        <v>873679</v>
+      </c>
+      <c r="D287" s="18">
+        <f t="shared" si="19"/>
+        <v>7552</v>
+      </c>
+      <c r="E287" s="110">
+        <f t="shared" si="18"/>
+        <v>1.1455008075048179</v>
+      </c>
       <c r="AC287">
         <v>207</v>
       </c>
@@ -32210,7 +34221,7 @@
         <v>18492</v>
       </c>
       <c r="AF287" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="AI287">
@@ -32218,7 +34229,24 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="288" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A288" s="7">
+        <v>291</v>
+      </c>
+      <c r="B288" s="18">
+        <v>287</v>
+      </c>
+      <c r="C288" s="18">
+        <v>883687</v>
+      </c>
+      <c r="D288" s="18">
+        <f t="shared" si="19"/>
+        <v>10008</v>
+      </c>
+      <c r="E288" s="110">
+        <f t="shared" si="18"/>
+        <v>1.0327185983272313</v>
+      </c>
       <c r="AC288">
         <v>208</v>
       </c>
@@ -32229,7 +34257,7 @@
         <v>18656</v>
       </c>
       <c r="AF288" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>164</v>
       </c>
       <c r="AI288">
@@ -32237,7 +34265,24 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="289" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A289" s="7">
+        <v>292</v>
+      </c>
+      <c r="B289" s="18">
+        <v>288</v>
+      </c>
+      <c r="C289" s="18">
+        <v>892813</v>
+      </c>
+      <c r="D289" s="18">
+        <f t="shared" si="19"/>
+        <v>9126</v>
+      </c>
+      <c r="E289" s="111">
+        <f t="shared" si="18"/>
+        <v>0.97724831515670907</v>
+      </c>
       <c r="AC289">
         <v>209</v>
       </c>
@@ -32248,7 +34293,7 @@
         <v>18741</v>
       </c>
       <c r="AF289" s="69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>85</v>
       </c>
       <c r="AI289">
@@ -32256,7 +34301,24 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="290" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A290" s="7">
+        <v>293</v>
+      </c>
+      <c r="B290" s="18">
+        <v>289</v>
+      </c>
+      <c r="C290" s="18">
+        <v>901538</v>
+      </c>
+      <c r="D290" s="18">
+        <f t="shared" si="19"/>
+        <v>8725</v>
+      </c>
+      <c r="E290" s="112">
+        <f t="shared" si="18"/>
+        <v>1.2133709283469019</v>
+      </c>
       <c r="AC290">
         <v>210</v>
       </c>
@@ -32267,7 +34329,7 @@
         <v>18843</v>
       </c>
       <c r="AF290" s="69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>102</v>
       </c>
       <c r="AI290">
@@ -32275,7 +34337,24 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="291" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A291" s="7">
+        <v>294</v>
+      </c>
+      <c r="B291" s="18">
+        <v>290</v>
+      </c>
+      <c r="C291" s="18">
+        <v>912477</v>
+      </c>
+      <c r="D291" s="18">
+        <f t="shared" si="19"/>
+        <v>10939</v>
+      </c>
+      <c r="E291" s="113">
+        <f t="shared" si="18"/>
+        <v>1.0350945832059422</v>
+      </c>
       <c r="AC291">
         <v>211</v>
       </c>
@@ -32286,7 +34365,7 @@
         <v>18891</v>
       </c>
       <c r="AF291" s="69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
       <c r="AI291">
@@ -32294,7 +34373,24 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="292" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A292" s="7">
+        <v>295</v>
+      </c>
+      <c r="B292" s="18">
+        <v>291</v>
+      </c>
+      <c r="C292" s="18">
+        <v>921922</v>
+      </c>
+      <c r="D292" s="18">
+        <f t="shared" si="19"/>
+        <v>9445</v>
+      </c>
+      <c r="E292" s="114">
+        <f t="shared" si="18"/>
+        <v>0.95333444694887248</v>
+      </c>
       <c r="AC292">
         <v>212</v>
       </c>
@@ -32305,7 +34401,7 @@
         <v>18944</v>
       </c>
       <c r="AF292" s="70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>53</v>
       </c>
       <c r="AI292">
@@ -32313,7 +34409,24 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="293" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A293" s="7">
+        <v>296</v>
+      </c>
+      <c r="B293" s="18">
+        <v>292</v>
+      </c>
+      <c r="C293" s="18">
+        <v>930711</v>
+      </c>
+      <c r="D293" s="18">
+        <f t="shared" si="19"/>
+        <v>8789</v>
+      </c>
+      <c r="E293" s="115">
+        <f t="shared" si="18"/>
+        <v>1.0208324603448338</v>
+      </c>
       <c r="AC293">
         <v>213</v>
       </c>
@@ -32324,7 +34437,7 @@
         <v>18968</v>
       </c>
       <c r="AF293" s="71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="AI293">
@@ -32332,7 +34445,24 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="294" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A294" s="7">
+        <v>297</v>
+      </c>
+      <c r="B294" s="18">
+        <v>293</v>
+      </c>
+      <c r="C294" s="18">
+        <v>940212</v>
+      </c>
+      <c r="D294" s="18">
+        <f t="shared" si="19"/>
+        <v>9501</v>
+      </c>
+      <c r="E294" s="116">
+        <f t="shared" si="18"/>
+        <v>1.4939183928730948</v>
+      </c>
       <c r="AC294">
         <v>214</v>
       </c>
@@ -32343,7 +34473,7 @@
         <v>19008</v>
       </c>
       <c r="AF294" s="72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="AI294">
@@ -32351,7 +34481,24 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="295" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A295" s="7">
+        <v>298</v>
+      </c>
+      <c r="B295" s="18">
+        <v>294</v>
+      </c>
+      <c r="C295" s="18">
+        <v>954258</v>
+      </c>
+      <c r="D295" s="18">
+        <f t="shared" si="19"/>
+        <v>14046</v>
+      </c>
+      <c r="E295" s="117">
+        <f t="shared" si="18"/>
+        <v>1.4990704819870526</v>
+      </c>
       <c r="AC295">
         <v>215</v>
       </c>
@@ -32362,7 +34509,7 @@
         <v>19053</v>
       </c>
       <c r="AF295" s="72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
       <c r="AI295">
@@ -32370,7 +34517,24 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="296" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A296" s="7">
+        <v>299</v>
+      </c>
+      <c r="B296" s="18">
+        <v>295</v>
+      </c>
+      <c r="C296" s="18">
+        <v>968563</v>
+      </c>
+      <c r="D296" s="18">
+        <f t="shared" si="19"/>
+        <v>14305</v>
+      </c>
+      <c r="E296" s="118">
+        <f t="shared" si="18"/>
+        <v>1.5276239129514479</v>
+      </c>
       <c r="AC296">
         <v>216</v>
       </c>
@@ -32381,7 +34545,7 @@
         <v>19111</v>
       </c>
       <c r="AF296" s="73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>58</v>
       </c>
       <c r="AI296">
@@ -32389,7 +34553,24 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="297" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A297" s="7">
+        <v>300</v>
+      </c>
+      <c r="B297" s="18">
+        <v>296</v>
+      </c>
+      <c r="C297" s="18">
+        <v>983359</v>
+      </c>
+      <c r="D297" s="18">
+        <f t="shared" si="19"/>
+        <v>14796</v>
+      </c>
+      <c r="E297" s="119">
+        <f t="shared" si="18"/>
+        <v>1.174748998076991</v>
+      </c>
       <c r="AC297">
         <v>217</v>
       </c>
@@ -32400,7 +34581,7 @@
         <v>19164</v>
       </c>
       <c r="AF297" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>53</v>
       </c>
       <c r="AI297">
@@ -32408,7 +34589,24 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="298" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A298" s="7">
+        <v>301</v>
+      </c>
+      <c r="B298" s="18">
+        <v>297</v>
+      </c>
+      <c r="C298" s="18">
+        <v>994911</v>
+      </c>
+      <c r="D298" s="18">
+        <f t="shared" si="19"/>
+        <v>11552</v>
+      </c>
+      <c r="E298" s="119">
+        <f t="shared" si="18"/>
+        <v>0.95506030187624269</v>
+      </c>
       <c r="AC298">
         <v>218</v>
       </c>
@@ -32419,7 +34617,7 @@
         <v>19230</v>
       </c>
       <c r="AF298" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>66</v>
       </c>
       <c r="AI298">
@@ -32427,7 +34625,24 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="299" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A299" s="7">
+        <v>302</v>
+      </c>
+      <c r="B299" s="18">
+        <v>298</v>
+      </c>
+      <c r="C299" s="18">
+        <v>1004413</v>
+      </c>
+      <c r="D299" s="18">
+        <f t="shared" si="19"/>
+        <v>9502</v>
+      </c>
+      <c r="E299" s="120">
+        <f t="shared" si="18"/>
+        <v>0.74252324492016797</v>
+      </c>
       <c r="AC299">
         <v>219</v>
       </c>
@@ -32438,7 +34653,7 @@
         <v>19276</v>
       </c>
       <c r="AF299" s="75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>46</v>
       </c>
       <c r="AI299">
@@ -32446,7 +34661,24 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="300" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A300" s="7">
+        <v>303</v>
+      </c>
+      <c r="B300" s="18">
+        <v>299</v>
+      </c>
+      <c r="C300" s="18">
+        <v>1011871</v>
+      </c>
+      <c r="D300" s="18">
+        <f t="shared" si="19"/>
+        <v>7458</v>
+      </c>
+      <c r="E300" s="120">
+        <f t="shared" si="18"/>
+        <v>0.94676100016701792</v>
+      </c>
       <c r="AC300">
         <v>220</v>
       </c>
@@ -32457,7 +34689,7 @@
         <v>19411</v>
       </c>
       <c r="AF300" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>135</v>
       </c>
       <c r="AI300">
@@ -32465,7 +34697,24 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="301" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A301" s="7">
+        <v>304</v>
+      </c>
+      <c r="B301" s="18">
+        <v>300</v>
+      </c>
+      <c r="C301" s="18">
+        <v>1021451</v>
+      </c>
+      <c r="D301" s="18">
+        <f t="shared" si="19"/>
+        <v>9580</v>
+      </c>
+      <c r="E301" s="121">
+        <f t="shared" si="18"/>
+        <v>1.7338080828155134</v>
+      </c>
       <c r="AC301">
         <v>221</v>
       </c>
@@ -32476,7 +34725,7 @@
         <v>19465</v>
       </c>
       <c r="AF301" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>54</v>
       </c>
       <c r="AI301">
@@ -32484,7 +34733,24 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="302" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A302" s="7">
+        <v>305</v>
+      </c>
+      <c r="B302" s="18">
+        <v>301</v>
+      </c>
+      <c r="C302" s="18">
+        <v>1039161</v>
+      </c>
+      <c r="D302" s="18">
+        <f t="shared" si="19"/>
+        <v>17710</v>
+      </c>
+      <c r="E302" s="122">
+        <f t="shared" si="18"/>
+        <v>1.732166622881337</v>
+      </c>
       <c r="AC302">
         <v>222</v>
       </c>
@@ -32495,7 +34761,7 @@
         <v>19539</v>
       </c>
       <c r="AF302" s="77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>74</v>
       </c>
       <c r="AI302">
@@ -32503,7 +34769,24 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="303" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A303" s="7">
+        <v>306</v>
+      </c>
+      <c r="B303" s="18">
+        <v>302</v>
+      </c>
+      <c r="C303" s="18">
+        <v>1057161</v>
+      </c>
+      <c r="D303" s="18">
+        <f t="shared" si="19"/>
+        <v>18000</v>
+      </c>
+      <c r="E303" s="122">
+        <f t="shared" si="18"/>
+        <v>1.5821620358677624</v>
+      </c>
       <c r="AC303">
         <v>223</v>
       </c>
@@ -32514,7 +34797,7 @@
         <v>19585</v>
       </c>
       <c r="AF303" s="78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>46</v>
       </c>
       <c r="AI303">
@@ -32522,7 +34805,24 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="304" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A304" s="7">
+        <v>307</v>
+      </c>
+      <c r="B304" s="18">
+        <v>303</v>
+      </c>
+      <c r="C304" s="18">
+        <v>1073887</v>
+      </c>
+      <c r="D304" s="18">
+        <f t="shared" si="19"/>
+        <v>16726</v>
+      </c>
+      <c r="E304" s="122">
+        <f t="shared" si="18"/>
+        <v>1.3969812466302356</v>
+      </c>
       <c r="AC304">
         <v>224</v>
       </c>
@@ -32533,7 +34833,7 @@
         <v>19677</v>
       </c>
       <c r="AF304" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>92</v>
       </c>
       <c r="AI304">
@@ -32541,7 +34841,24 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="305" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A305" s="7">
+        <v>308</v>
+      </c>
+      <c r="B305" s="18">
+        <v>304</v>
+      </c>
+      <c r="C305" s="18">
+        <v>1088889</v>
+      </c>
+      <c r="D305" s="18">
+        <f t="shared" si="19"/>
+        <v>15002</v>
+      </c>
+      <c r="E305" s="122">
+        <f t="shared" si="18"/>
+        <v>1.0890917256028754</v>
+      </c>
       <c r="AC305">
         <v>225</v>
       </c>
@@ -32552,7 +34869,7 @@
         <v>19749</v>
       </c>
       <c r="AF305" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>72</v>
       </c>
       <c r="AI305">
@@ -32560,7 +34877,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="306" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A306" s="7">
+        <v>309</v>
+      </c>
+      <c r="B306" s="18">
+        <v>305</v>
+      </c>
+      <c r="C306" s="18">
+        <v>1100748</v>
+      </c>
+      <c r="D306" s="18">
+        <f t="shared" si="19"/>
+        <v>11859</v>
+      </c>
+      <c r="E306" s="122"/>
       <c r="AC306">
         <v>226</v>
       </c>
@@ -32571,7 +34902,7 @@
         <v>19789</v>
       </c>
       <c r="AF306" s="81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="AI306">
@@ -32579,7 +34910,13 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="307" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A307" s="7">
+        <v>310</v>
+      </c>
+      <c r="B307" s="18">
+        <v>306</v>
+      </c>
       <c r="AC307">
         <v>227</v>
       </c>
@@ -32590,7 +34927,7 @@
         <v>19809</v>
       </c>
       <c r="AF307" s="82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="AI307">
@@ -32598,7 +34935,13 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="308" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A308" s="7">
+        <v>311</v>
+      </c>
+      <c r="B308" s="18">
+        <v>307</v>
+      </c>
       <c r="AC308">
         <v>228</v>
       </c>
@@ -32609,7 +34952,7 @@
         <v>19845</v>
       </c>
       <c r="AF308" s="83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>36</v>
       </c>
       <c r="AI308">
@@ -32617,7 +34960,13 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="309" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A309" s="7">
+        <v>312</v>
+      </c>
+      <c r="B309" s="18">
+        <v>308</v>
+      </c>
       <c r="AC309">
         <v>229</v>
       </c>
@@ -32628,7 +34977,7 @@
         <v>19951</v>
       </c>
       <c r="AF309" s="84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>106</v>
       </c>
       <c r="AI309">
@@ -32636,7 +34985,13 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="310" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A310" s="7">
+        <v>313</v>
+      </c>
+      <c r="B310" s="18">
+        <v>309</v>
+      </c>
       <c r="AC310">
         <v>230</v>
       </c>
@@ -32647,7 +35002,7 @@
         <v>20011</v>
       </c>
       <c r="AF310" s="85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>60</v>
       </c>
       <c r="AI310">
@@ -32655,7 +35010,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="311" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A311" s="7">
+        <v>314</v>
+      </c>
+      <c r="B311" s="18">
+        <v>310</v>
+      </c>
       <c r="AC311">
         <v>231</v>
       </c>
@@ -32666,7 +35027,7 @@
         <v>20076</v>
       </c>
       <c r="AF311" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>65</v>
       </c>
       <c r="AI311">
@@ -32674,7 +35035,13 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="312" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A312" s="7">
+        <v>315</v>
+      </c>
+      <c r="B312" s="18">
+        <v>311</v>
+      </c>
       <c r="AC312">
         <v>232</v>
       </c>
@@ -32685,7 +35052,7 @@
         <v>20153</v>
       </c>
       <c r="AF312" s="87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>77</v>
       </c>
       <c r="AI312">
@@ -32693,7 +35060,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="313" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AC313">
         <v>233</v>
       </c>
@@ -32704,7 +35071,7 @@
         <v>20206</v>
       </c>
       <c r="AF313" s="87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>53</v>
       </c>
       <c r="AI313">
@@ -32712,7 +35079,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="314" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AC314">
         <v>234</v>
       </c>
@@ -32723,7 +35090,7 @@
         <v>20241</v>
       </c>
       <c r="AF314" s="88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
       <c r="AI314">
@@ -32731,7 +35098,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="315" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AC315">
         <v>235</v>
       </c>
@@ -32742,15 +35109,15 @@
         <v>20314</v>
       </c>
       <c r="AF315" s="88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>73</v>
       </c>
       <c r="AI315">
-        <f t="shared" ref="AI315:AI323" si="20">ROUND((AE315/AE314-1)*100, 2)</f>
+        <f t="shared" ref="AI315:AI363" si="21">ROUND((AE315/AE314-1)*100, 2)</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="316" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AC316">
         <v>236</v>
       </c>
@@ -32761,15 +35128,15 @@
         <v>20433</v>
       </c>
       <c r="AF316" s="89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>119</v>
       </c>
       <c r="AI316">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.59</v>
       </c>
     </row>
-    <row r="317" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AC317">
         <v>237</v>
       </c>
@@ -32780,15 +35147,15 @@
         <v>20556</v>
       </c>
       <c r="AF317" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>123</v>
       </c>
       <c r="AI317">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="318" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AC318">
         <v>238</v>
       </c>
@@ -32799,15 +35166,15 @@
         <v>20671</v>
       </c>
       <c r="AF318" s="91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>115</v>
       </c>
       <c r="AI318">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="319" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AC319">
         <v>239</v>
       </c>
@@ -32818,15 +35185,15 @@
         <v>20759</v>
       </c>
       <c r="AF319" s="92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>88</v>
       </c>
       <c r="AI319">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.43</v>
       </c>
     </row>
-    <row r="320" spans="29:35" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AC320">
         <v>240</v>
       </c>
@@ -32837,11 +35204,11 @@
         <v>20845</v>
       </c>
       <c r="AF320" s="93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>86</v>
       </c>
       <c r="AI320">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.41</v>
       </c>
     </row>
@@ -32856,11 +35223,11 @@
         <v>20903</v>
       </c>
       <c r="AF321" s="94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>58</v>
       </c>
       <c r="AI321">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -32875,11 +35242,11 @@
         <v>20968</v>
       </c>
       <c r="AF322" s="94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>65</v>
       </c>
       <c r="AI322">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.31</v>
       </c>
     </row>
@@ -32894,11 +35261,11 @@
         <v>21083</v>
       </c>
       <c r="AF323" s="95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>115</v>
       </c>
       <c r="AI323">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -32909,6 +35276,17 @@
       <c r="AD324" s="89">
         <v>266</v>
       </c>
+      <c r="AE324" s="96">
+        <v>21201</v>
+      </c>
+      <c r="AF324" s="96">
+        <f t="shared" si="20"/>
+        <v>118</v>
+      </c>
+      <c r="AI324">
+        <f t="shared" si="21"/>
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="325" spans="29:35" x14ac:dyDescent="0.3">
       <c r="AC325">
@@ -32917,6 +35295,17 @@
       <c r="AD325" s="89">
         <v>267</v>
       </c>
+      <c r="AE325" s="97">
+        <v>21289</v>
+      </c>
+      <c r="AF325" s="97">
+        <f t="shared" si="20"/>
+        <v>88</v>
+      </c>
+      <c r="AI325">
+        <f t="shared" si="21"/>
+        <v>0.42</v>
+      </c>
     </row>
     <row r="326" spans="29:35" x14ac:dyDescent="0.3">
       <c r="AC326">
@@ -32925,6 +35314,17 @@
       <c r="AD326" s="89">
         <v>268</v>
       </c>
+      <c r="AE326" s="98">
+        <v>21378</v>
+      </c>
+      <c r="AF326" s="98">
+        <f t="shared" si="20"/>
+        <v>89</v>
+      </c>
+      <c r="AI326">
+        <f t="shared" si="21"/>
+        <v>0.42</v>
+      </c>
     </row>
     <row r="327" spans="29:35" x14ac:dyDescent="0.3">
       <c r="AC327">
@@ -32933,6 +35333,17 @@
       <c r="AD327" s="89">
         <v>269</v>
       </c>
+      <c r="AE327" s="99">
+        <v>21439</v>
+      </c>
+      <c r="AF327" s="99">
+        <f t="shared" si="20"/>
+        <v>61</v>
+      </c>
+      <c r="AI327">
+        <f t="shared" si="21"/>
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="328" spans="29:35" x14ac:dyDescent="0.3">
       <c r="AC328">
@@ -32940,6 +35351,770 @@
       </c>
       <c r="AD328" s="89">
         <v>270</v>
+      </c>
+      <c r="AE328" s="99">
+        <v>21477</v>
+      </c>
+      <c r="AF328" s="99">
+        <f t="shared" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="AI328">
+        <f t="shared" si="21"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="329" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC329">
+        <v>249</v>
+      </c>
+      <c r="AD329" s="99">
+        <v>271</v>
+      </c>
+      <c r="AE329" s="100">
+        <v>21535</v>
+      </c>
+      <c r="AF329" s="100">
+        <f t="shared" si="20"/>
+        <v>58</v>
+      </c>
+      <c r="AI329">
+        <f t="shared" si="21"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="330" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC330">
+        <v>250</v>
+      </c>
+      <c r="AD330" s="99">
+        <v>272</v>
+      </c>
+      <c r="AE330" s="100">
+        <v>21644</v>
+      </c>
+      <c r="AF330" s="100">
+        <f t="shared" si="20"/>
+        <v>109</v>
+      </c>
+      <c r="AI330">
+        <f t="shared" si="21"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="331" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC331">
+        <v>251</v>
+      </c>
+      <c r="AD331" s="99">
+        <v>273</v>
+      </c>
+      <c r="AE331" s="101">
+        <v>21709</v>
+      </c>
+      <c r="AF331" s="101">
+        <f t="shared" si="20"/>
+        <v>65</v>
+      </c>
+      <c r="AI331">
+        <f t="shared" si="21"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="332" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC332">
+        <v>252</v>
+      </c>
+      <c r="AD332" s="99">
+        <v>274</v>
+      </c>
+      <c r="AE332" s="101">
+        <v>21803</v>
+      </c>
+      <c r="AF332" s="101">
+        <f t="shared" si="20"/>
+        <v>94</v>
+      </c>
+      <c r="AI332">
+        <f t="shared" si="21"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="333" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC333">
+        <v>253</v>
+      </c>
+      <c r="AD333" s="99">
+        <v>275</v>
+      </c>
+      <c r="AE333" s="102">
+        <v>21963</v>
+      </c>
+      <c r="AF333" s="102">
+        <f t="shared" si="20"/>
+        <v>160</v>
+      </c>
+      <c r="AI333">
+        <f t="shared" si="21"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="334" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC334">
+        <v>254</v>
+      </c>
+      <c r="AD334" s="99">
+        <v>276</v>
+      </c>
+      <c r="AE334" s="102">
+        <v>22067</v>
+      </c>
+      <c r="AF334" s="102">
+        <f t="shared" si="20"/>
+        <v>104</v>
+      </c>
+      <c r="AI334">
+        <f t="shared" si="21"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="335" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC335">
+        <v>255</v>
+      </c>
+      <c r="AD335" s="103">
+        <v>277</v>
+      </c>
+      <c r="AE335" s="103">
+        <v>22206</v>
+      </c>
+      <c r="AF335" s="103">
+        <f t="shared" si="20"/>
+        <v>139</v>
+      </c>
+      <c r="AI335">
+        <f t="shared" si="21"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="336" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC336">
+        <v>256</v>
+      </c>
+      <c r="AD336" s="103">
+        <v>278</v>
+      </c>
+      <c r="AE336" s="103">
+        <v>22249</v>
+      </c>
+      <c r="AF336" s="103">
+        <f t="shared" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="AI336">
+        <f t="shared" si="21"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="337" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC337">
+        <v>257</v>
+      </c>
+      <c r="AD337" s="103">
+        <v>279</v>
+      </c>
+      <c r="AE337" s="104">
+        <v>22432</v>
+      </c>
+      <c r="AF337" s="104">
+        <f t="shared" si="20"/>
+        <v>183</v>
+      </c>
+      <c r="AI337">
+        <f t="shared" si="21"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="338" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC338">
+        <v>258</v>
+      </c>
+      <c r="AD338" s="103">
+        <v>280</v>
+      </c>
+      <c r="AE338" s="105">
+        <v>22574</v>
+      </c>
+      <c r="AF338" s="105">
+        <f t="shared" si="20"/>
+        <v>142</v>
+      </c>
+      <c r="AI338">
+        <f t="shared" si="21"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="339" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC339">
+        <v>259</v>
+      </c>
+      <c r="AD339" s="103">
+        <v>281</v>
+      </c>
+      <c r="AE339" s="106">
+        <v>22747</v>
+      </c>
+      <c r="AF339" s="106">
+        <f t="shared" si="20"/>
+        <v>173</v>
+      </c>
+      <c r="AI339">
+        <f t="shared" si="21"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="340" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC340">
+        <v>260</v>
+      </c>
+      <c r="AD340" s="103">
+        <v>282</v>
+      </c>
+      <c r="AE340" s="107">
+        <v>22952</v>
+      </c>
+      <c r="AF340" s="107">
+        <f t="shared" si="20"/>
+        <v>205</v>
+      </c>
+      <c r="AI340">
+        <f t="shared" si="21"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="341" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC341">
+        <v>261</v>
+      </c>
+      <c r="AD341" s="103">
+        <v>283</v>
+      </c>
+      <c r="AE341" s="107">
+        <v>23106</v>
+      </c>
+      <c r="AF341" s="107">
+        <f t="shared" si="20"/>
+        <v>154</v>
+      </c>
+      <c r="AI341">
+        <f t="shared" si="21"/>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="342" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC342">
+        <v>262</v>
+      </c>
+      <c r="AD342" s="103">
+        <v>284</v>
+      </c>
+      <c r="AE342" s="107">
+        <v>23276</v>
+      </c>
+      <c r="AF342" s="107">
+        <f t="shared" si="20"/>
+        <v>170</v>
+      </c>
+      <c r="AI342">
+        <f t="shared" si="21"/>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="343" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC343">
+        <v>263</v>
+      </c>
+      <c r="AD343" s="103">
+        <v>285</v>
+      </c>
+      <c r="AE343" s="108">
+        <v>23451</v>
+      </c>
+      <c r="AF343" s="108">
+        <f t="shared" si="20"/>
+        <v>175</v>
+      </c>
+      <c r="AI343">
+        <f t="shared" si="21"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="344" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC344">
+        <v>264</v>
+      </c>
+      <c r="AD344" s="103">
+        <v>286</v>
+      </c>
+      <c r="AE344" s="109">
+        <v>23661</v>
+      </c>
+      <c r="AF344" s="109">
+        <f t="shared" si="20"/>
+        <v>210</v>
+      </c>
+      <c r="AI344">
+        <f t="shared" si="21"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="345" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC345">
+        <v>265</v>
+      </c>
+      <c r="AD345" s="103">
+        <v>287</v>
+      </c>
+      <c r="AE345" s="110">
+        <v>23827</v>
+      </c>
+      <c r="AF345" s="110">
+        <f t="shared" si="20"/>
+        <v>166</v>
+      </c>
+      <c r="AI345">
+        <f t="shared" si="21"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="346" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC346">
+        <v>266</v>
+      </c>
+      <c r="AD346" s="103">
+        <v>288</v>
+      </c>
+      <c r="AE346" s="110">
+        <v>24011</v>
+      </c>
+      <c r="AF346" s="110">
+        <f t="shared" ref="AF346:AF348" si="22">AE346-AE345</f>
+        <v>184</v>
+      </c>
+      <c r="AI346">
+        <f t="shared" si="21"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="347" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC347">
+        <v>267</v>
+      </c>
+      <c r="AD347" s="103">
+        <v>289</v>
+      </c>
+      <c r="AE347" s="111">
+        <v>24285</v>
+      </c>
+      <c r="AF347" s="111">
+        <f t="shared" si="22"/>
+        <v>274</v>
+      </c>
+      <c r="AI347">
+        <f t="shared" si="21"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC348">
+        <v>268</v>
+      </c>
+      <c r="AD348" s="103">
+        <v>290</v>
+      </c>
+      <c r="AE348" s="112">
+        <v>24539</v>
+      </c>
+      <c r="AF348" s="112">
+        <f t="shared" si="22"/>
+        <v>254</v>
+      </c>
+      <c r="AI348">
+        <f t="shared" si="21"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="349" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC349">
+        <v>269</v>
+      </c>
+      <c r="AD349" s="103">
+        <v>291</v>
+      </c>
+      <c r="AE349" s="113">
+        <v>24691</v>
+      </c>
+      <c r="AF349" s="113">
+        <f t="shared" ref="AF349:AF363" si="23">AE349-AE348</f>
+        <v>152</v>
+      </c>
+      <c r="AI349">
+        <f t="shared" si="21"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="350" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC350">
+        <v>270</v>
+      </c>
+      <c r="AD350" s="103">
+        <v>292</v>
+      </c>
+      <c r="AE350" s="114">
+        <v>24907</v>
+      </c>
+      <c r="AF350" s="114">
+        <f t="shared" si="23"/>
+        <v>216</v>
+      </c>
+      <c r="AI350">
+        <f t="shared" si="21"/>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="351" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC351">
+        <v>271</v>
+      </c>
+      <c r="AD351" s="103">
+        <v>293</v>
+      </c>
+      <c r="AE351" s="115">
+        <v>25246</v>
+      </c>
+      <c r="AF351" s="115">
+        <f t="shared" si="23"/>
+        <v>339</v>
+      </c>
+      <c r="AI351">
+        <f t="shared" si="21"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="352" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC352">
+        <v>272</v>
+      </c>
+      <c r="AD352" s="103">
+        <v>294</v>
+      </c>
+      <c r="AE352" s="116">
+        <v>25657</v>
+      </c>
+      <c r="AF352" s="116">
+        <f t="shared" si="23"/>
+        <v>411</v>
+      </c>
+      <c r="AI352">
+        <f t="shared" si="21"/>
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="353" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC353">
+        <v>273</v>
+      </c>
+      <c r="AD353" s="103">
+        <v>295</v>
+      </c>
+      <c r="AE353" s="117">
+        <v>25983</v>
+      </c>
+      <c r="AF353" s="117">
+        <f t="shared" si="23"/>
+        <v>326</v>
+      </c>
+      <c r="AI353">
+        <f t="shared" si="21"/>
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="354" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC354">
+        <v>274</v>
+      </c>
+      <c r="AD354" s="118">
+        <v>296</v>
+      </c>
+      <c r="AE354" s="118">
+        <v>26276</v>
+      </c>
+      <c r="AF354" s="118">
+        <f t="shared" si="23"/>
+        <v>293</v>
+      </c>
+      <c r="AI354">
+        <f t="shared" si="21"/>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC355">
+        <v>275</v>
+      </c>
+      <c r="AD355" s="118">
+        <v>297</v>
+      </c>
+      <c r="AE355" s="119">
+        <v>26521</v>
+      </c>
+      <c r="AF355" s="119">
+        <f t="shared" si="23"/>
+        <v>245</v>
+      </c>
+      <c r="AI355">
+        <f t="shared" si="21"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="356" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC356">
+        <v>276</v>
+      </c>
+      <c r="AD356" s="118">
+        <v>298</v>
+      </c>
+      <c r="AE356" s="119">
+        <v>26735</v>
+      </c>
+      <c r="AF356" s="119">
+        <f t="shared" si="23"/>
+        <v>214</v>
+      </c>
+      <c r="AI356">
+        <f t="shared" si="21"/>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="357" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC357">
+        <v>277</v>
+      </c>
+      <c r="AD357" s="118">
+        <v>299</v>
+      </c>
+      <c r="AE357" s="120">
+        <v>27071</v>
+      </c>
+      <c r="AF357" s="120">
+        <f t="shared" si="23"/>
+        <v>336</v>
+      </c>
+      <c r="AI357">
+        <f t="shared" si="21"/>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="358" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC358">
+        <v>278</v>
+      </c>
+      <c r="AD358" s="118">
+        <v>300</v>
+      </c>
+      <c r="AE358" s="120">
+        <v>27568</v>
+      </c>
+      <c r="AF358" s="120">
+        <f t="shared" si="23"/>
+        <v>497</v>
+      </c>
+      <c r="AI358">
+        <f t="shared" si="21"/>
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="359" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC359">
+        <v>279</v>
+      </c>
+      <c r="AD359" s="118">
+        <v>301</v>
+      </c>
+      <c r="AE359" s="121">
+        <v>28033</v>
+      </c>
+      <c r="AF359" s="121">
+        <f t="shared" si="23"/>
+        <v>465</v>
+      </c>
+      <c r="AI359">
+        <f t="shared" si="21"/>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="360" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC360">
+        <v>280</v>
+      </c>
+      <c r="AD360" s="118">
+        <v>302</v>
+      </c>
+      <c r="AE360" s="122">
+        <v>28469</v>
+      </c>
+      <c r="AF360" s="122">
+        <f t="shared" si="23"/>
+        <v>436</v>
+      </c>
+      <c r="AI360">
+        <f t="shared" si="21"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="361" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC361">
+        <v>281</v>
+      </c>
+      <c r="AD361" s="118">
+        <v>303</v>
+      </c>
+      <c r="AE361" s="122">
+        <v>28887</v>
+      </c>
+      <c r="AF361" s="122">
+        <f t="shared" si="23"/>
+        <v>418</v>
+      </c>
+      <c r="AI361">
+        <f t="shared" si="21"/>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="362" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC362">
+        <v>282</v>
+      </c>
+      <c r="AD362" s="118">
+        <v>304</v>
+      </c>
+      <c r="AE362" s="122">
+        <v>29175</v>
+      </c>
+      <c r="AF362" s="122">
+        <f t="shared" si="23"/>
+        <v>288</v>
+      </c>
+      <c r="AI362">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC363">
+        <v>283</v>
+      </c>
+      <c r="AD363" s="118">
+        <v>305</v>
+      </c>
+      <c r="AE363" s="122">
+        <v>29577</v>
+      </c>
+      <c r="AF363" s="122">
+        <f t="shared" si="23"/>
+        <v>402</v>
+      </c>
+      <c r="AI363">
+        <f t="shared" si="21"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="364" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC364">
+        <v>284</v>
+      </c>
+      <c r="AD364" s="122">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="365" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC365">
+        <v>285</v>
+      </c>
+      <c r="AD365" s="122">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="366" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC366">
+        <v>286</v>
+      </c>
+      <c r="AD366" s="122">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="367" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC367">
+        <v>287</v>
+      </c>
+      <c r="AD367" s="122">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="368" spans="29:35" x14ac:dyDescent="0.3">
+      <c r="AC368">
+        <v>288</v>
+      </c>
+      <c r="AD368" s="122">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="369" spans="29:30" x14ac:dyDescent="0.3">
+      <c r="AC369">
+        <v>289</v>
+      </c>
+      <c r="AD369" s="122">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="370" spans="29:30" x14ac:dyDescent="0.3">
+      <c r="AC370">
+        <v>290</v>
+      </c>
+      <c r="AD370" s="122">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="371" spans="29:30" x14ac:dyDescent="0.3">
+      <c r="AC371">
+        <v>291</v>
+      </c>
+      <c r="AD371" s="122">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="372" spans="29:30" x14ac:dyDescent="0.3">
+      <c r="AC372">
+        <v>292</v>
+      </c>
+      <c r="AD372" s="122">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="373" spans="29:30" x14ac:dyDescent="0.3">
+      <c r="AC373">
+        <v>293</v>
+      </c>
+      <c r="AD373" s="122">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="374" spans="29:30" x14ac:dyDescent="0.3">
+      <c r="AC374">
+        <v>294</v>
+      </c>
+      <c r="AD374" s="122">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
